--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,14 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1208e03d4a80a72e/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_4E09C2876C77EFAABB77576D157EC73AB45D5B22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD1AF294-0A68-4AE6-A341-6C300F872293}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Final list for LCHFElimination " sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Final list for LFV Elimination " sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Filter -1 Allergies - Bonus Poi" sheetId="3" r:id="rId6"/>
+    <sheet name="Final list for LCHFElimination " sheetId="1" r:id="rId1"/>
+    <sheet name="Final list for LFV Elimination " sheetId="2" r:id="rId2"/>
+    <sheet name="Allergy-Milk" sheetId="4" r:id="rId3"/>
+    <sheet name="Allergg-Nut" sheetId="5" r:id="rId4"/>
+    <sheet name="Filter -1 Allergies - Bonus Poi" sheetId="3" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="ifbtyZVukqtFcZuBhHdIdmHXh+pRrQGDnqPVS/My2go="/>
@@ -18,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="253">
   <si>
     <t>Meal plan for Low Carbohydrates High Fat (Keto) -LCHF</t>
   </si>
@@ -768,69 +779,100 @@
   </si>
   <si>
     <t>Seafood</t>
+  </si>
+  <si>
+    <t>Milk products</t>
+  </si>
+  <si>
+    <t>Peanut</t>
+  </si>
+  <si>
+    <t>Nuts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="14.0"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF212B32"/>
       <name val="&quot;Frutiger W01&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -850,29 +892,47 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
-    <border/>
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -882,6 +942,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -896,6 +957,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -904,73 +966,74 @@
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1160,1967 +1223,2158 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.88"/>
-    <col customWidth="1" min="2" max="2" width="33.63"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="27.5"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.2">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.2">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="13.2">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="13.2">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="13.2">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="13.2">
+      <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.2">
+      <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="13.2">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="13.2">
+      <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.2">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="13.2">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="13.2">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="13.2">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="13.2">
+      <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="13.2">
+      <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="13.2">
+      <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="13.2">
+      <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.2">
+      <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="13.2">
+      <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="13.2">
+      <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="13.2">
+      <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="13.2">
+      <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="13.2">
+      <c r="A38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="13.2">
+      <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="13.2">
+      <c r="A40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="13.2">
+      <c r="A41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="13.2">
+      <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.2">
+      <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="13.2">
+      <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="13.2">
+      <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="13.2">
+      <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="13.2">
+      <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="13.2">
+      <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="13.2">
+      <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" ht="13.2">
+      <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="13.2">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" ht="13.2">
+      <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="13.2">
+      <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="13.2">
+      <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="13.2">
+      <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="13.2">
+      <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="13.2">
+      <c r="A57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="13.2">
+      <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="13.2">
+      <c r="A59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="13.2">
+      <c r="A60" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="13.2">
+      <c r="A61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="13.2">
+      <c r="A62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="13.2">
+      <c r="A63" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="13.2">
+      <c r="A64" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="13.2">
+      <c r="A65" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="13.2">
+      <c r="A66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="13.2">
+      <c r="A67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" ht="13.2">
+      <c r="A68" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="13.2">
+      <c r="A69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="13.2">
+      <c r="A70" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" ht="13.2">
+      <c r="A71" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="13.2">
+      <c r="A72" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="13.2">
+      <c r="A73" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" ht="13.2">
+      <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="13.2">
+      <c r="A75" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="13.2">
+      <c r="A76" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="s">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" ht="13.2">
+      <c r="A77" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="13.2">
+      <c r="A78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" ht="13.2">
+      <c r="A79" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" ht="13.2">
+      <c r="A80" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="13.2">
+      <c r="A81" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="s">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" ht="13.2">
+      <c r="A82" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="s">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" ht="13.2">
+      <c r="A83" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="s">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" ht="13.2">
+      <c r="A84" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" ht="13.2">
+      <c r="A85" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="s">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" ht="13.2">
+      <c r="A86" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="s">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" ht="13.2">
+      <c r="A87" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="s">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" ht="13.2">
+      <c r="A88" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="s">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" ht="13.2">
+      <c r="A89" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="s">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" ht="13.2">
+      <c r="A90" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="s">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" ht="13.2">
+      <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="s">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" ht="13.2">
+      <c r="A92" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" ht="13.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.13"/>
-    <col customWidth="1" min="2" max="2" width="24.38"/>
-    <col customWidth="1" min="3" max="3" width="31.75"/>
-    <col customWidth="1" min="4" max="4" width="25.38"/>
-    <col customWidth="1" min="5" max="5" width="21.38"/>
-    <col customWidth="1" min="8" max="8" width="18.13"/>
-    <col customWidth="1" min="9" max="9" width="14.38"/>
-    <col customWidth="1" min="10" max="10" width="18.25"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="H8" s="10" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.2">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.2">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.2">
+      <c r="A18" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="J18" s="10" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="J18" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:10" ht="13.2">
+      <c r="A19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.2">
+      <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.2">
+      <c r="A21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.2">
+      <c r="A22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.2">
+      <c r="A23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.2">
+      <c r="A24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.2">
+      <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.2">
+      <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.2">
+      <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.2">
+      <c r="A28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.2">
+      <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.2">
+      <c r="A30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.2">
+      <c r="A31" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.2">
+      <c r="A32" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.2">
+      <c r="A33" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.2">
+      <c r="A34" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.2">
+      <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.2">
+      <c r="A36" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.2">
+      <c r="A37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.2">
+      <c r="A38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.2">
+      <c r="A39" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.2">
+      <c r="A40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.2">
+      <c r="A41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.2">
+      <c r="A42" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.2">
+      <c r="A43" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.2">
+      <c r="A44" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.2">
+      <c r="A45" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.2">
+      <c r="A46" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.2">
+      <c r="A47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.2">
+      <c r="A48" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="13.2">
+      <c r="A49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.2">
+      <c r="A50" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.2">
+      <c r="A51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.2">
+      <c r="A52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="13.2">
+      <c r="A53" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="13.2">
+      <c r="A54" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="13.2">
+      <c r="A55" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="13.2">
+      <c r="A56" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="13.2">
+      <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="13.2">
+      <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="13.2">
+      <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="13.2">
+      <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="13.2">
+      <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.2">
+      <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="13.2">
+      <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="13.2">
+      <c r="A64" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="13.2">
+      <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="13.2">
+      <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="13.2">
+      <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="13.2">
+      <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="13.2">
+      <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="13.2">
+      <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="13.2">
+      <c r="A71" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="13.2">
+      <c r="A72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="13.2">
+      <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="13.2">
+      <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="13.2">
+      <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="13.2">
+      <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="8"/>
-      <c r="B77" s="5" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="13.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8"/>
-      <c r="B78" s="5" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="13.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="8"/>
-      <c r="B79" s="5" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="13.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8"/>
-      <c r="B80" s="5" t="s">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="13.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8"/>
-      <c r="B81" s="5" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="13.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8"/>
-      <c r="B82" s="5" t="s">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8"/>
-      <c r="B83" s="5" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8"/>
-      <c r="B84" s="5" t="s">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8"/>
-      <c r="B85" s="5" t="s">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8"/>
-      <c r="B86" s="5" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="8"/>
-      <c r="B87" s="5" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="13.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="8"/>
-      <c r="B88" s="5" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="13.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="8"/>
-      <c r="B89" s="5" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="13.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="8"/>
-      <c r="B90" s="5" t="s">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="13.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6C42CC-5C0D-4B4D-90B3-10F55BC074A8}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="16" customFormat="1">
+      <c r="A1" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0414217-B9CC-4C30-8FD7-67A5169C1707}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="16" customFormat="1">
+      <c r="A1" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.0"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="516" yWindow="624" windowWidth="9276" windowHeight="2340" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Final list for LCHFElimination " sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Final list for LFV Elimination " sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Filter -1 Allergies - Bonus Poi" sheetId="3" r:id="rId6"/>
+    <sheet name="Final list for LCHFElimination " sheetId="1" r:id="rId1"/>
+    <sheet name="Final list for LFV Elimination " sheetId="2" r:id="rId2"/>
+    <sheet name="Filter -1 Allergies - Bonus Poi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="ifbtyZVukqtFcZuBhHdIdmHXh+pRrQGDnqPVS/My2go="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="253">
   <si>
     <t>Meal plan for Low Carbohydrates High Fat (Keto) -LCHF</t>
   </si>
@@ -768,69 +766,100 @@
   </si>
   <si>
     <t>Seafood</t>
+  </si>
+  <si>
+    <t>Milk products</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Peanut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="14.0"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF212B32"/>
       <name val="&quot;Frutiger W01&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -850,29 +879,47 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
-    <border/>
+  <borders count="8">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -882,6 +929,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -896,6 +944,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -904,73 +953,94 @@
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1160,1967 +1230,2422 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F93"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.88"/>
-    <col customWidth="1" min="2" max="2" width="33.63"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="27.5"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.2">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.2">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.2">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.2">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.2">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.2">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.2">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.2">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.2">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.2">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.2">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.2">
+      <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.2">
+      <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" ht="13.2">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.2">
+      <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.2">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.2">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.2">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.2">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.2">
+      <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.2">
+      <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.2">
+      <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.2">
+      <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="13.2">
+      <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" ht="13.2">
+      <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.2">
+      <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.2">
+      <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.2">
+      <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.2">
+      <c r="A38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.2">
+      <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.2">
+      <c r="A40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6" ht="13.2">
+      <c r="A41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.2">
+      <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.2">
+      <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:6" ht="13.2">
+      <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:6" ht="13.2">
+      <c r="A45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="1:6" ht="13.2">
+      <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.2">
+      <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="1:6" ht="13.2">
+      <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.2">
+      <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.2">
+      <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" spans="1:6" ht="13.2">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.2">
+      <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="20"/>
+    </row>
+    <row r="53" spans="1:6" ht="13.2">
+      <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="1:6" ht="13.2">
+      <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="1:6" ht="13.2">
+      <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" spans="1:6" ht="13.2">
+      <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:6" ht="13.2">
+      <c r="A57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" spans="1:6" ht="13.2">
+      <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="1:6" ht="13.2">
+      <c r="A59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="1:6" ht="13.2">
+      <c r="A60" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" spans="1:6" ht="13.2">
+      <c r="A61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="1:6" ht="13.2">
+      <c r="A62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="1:6" ht="13.2">
+      <c r="A63" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" spans="1:6" ht="13.2">
+      <c r="A64" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="20"/>
+    </row>
+    <row r="65" spans="1:6" ht="13.2">
+      <c r="A65" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="20"/>
+    </row>
+    <row r="66" spans="1:6" ht="13.2">
+      <c r="A66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="1:6" ht="13.2">
+      <c r="A67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.2">
+      <c r="A68" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.2">
+      <c r="A69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.2">
+      <c r="A70" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.2">
+      <c r="A71" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.2">
+      <c r="A72" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.2">
+      <c r="A73" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.2">
+      <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.2">
+      <c r="A75" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" ht="13.2">
+      <c r="A76" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="16"/>
+    </row>
+    <row r="77" spans="1:6" ht="13.2">
+      <c r="A77" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="s">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="16"/>
+    </row>
+    <row r="78" spans="1:6" ht="13.2">
+      <c r="A78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="16"/>
+    </row>
+    <row r="79" spans="1:6" ht="13.2">
+      <c r="A79" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="16"/>
+    </row>
+    <row r="80" spans="1:6" ht="13.2">
+      <c r="A80" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="s">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16"/>
+    </row>
+    <row r="81" spans="1:5" ht="13.2">
+      <c r="A81" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:5" ht="13.2">
+      <c r="A82" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.2">
+      <c r="A83" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="s">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.2">
+      <c r="A84" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="s">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.2">
+      <c r="A85" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="s">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.2">
+      <c r="A86" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="s">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" spans="1:5" ht="13.2">
+      <c r="A87" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="s">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="16"/>
+    </row>
+    <row r="88" spans="1:5" ht="13.2">
+      <c r="A88" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="s">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" spans="1:5" ht="13.2">
+      <c r="A89" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="s">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="16"/>
+    </row>
+    <row r="90" spans="1:5" ht="13.2">
+      <c r="A90" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="s">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="16"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.2">
+      <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="s">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="16"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.2">
+      <c r="A92" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="16"/>
+    </row>
+    <row r="93" spans="1:5" ht="13.2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.13"/>
-    <col customWidth="1" min="2" max="2" width="24.38"/>
-    <col customWidth="1" min="3" max="3" width="31.75"/>
-    <col customWidth="1" min="4" max="4" width="25.38"/>
-    <col customWidth="1" min="5" max="5" width="21.38"/>
-    <col customWidth="1" min="8" max="8" width="18.13"/>
-    <col customWidth="1" min="9" max="9" width="14.38"/>
-    <col customWidth="1" min="10" max="10" width="18.25"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.2">
+      <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="F3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.2">
+      <c r="A4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.2">
+      <c r="A5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.2">
+      <c r="A7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.2">
+      <c r="A8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="H8" s="10" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:8" ht="26.4">
+      <c r="A9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.2">
+      <c r="A10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.2">
+      <c r="A11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.2">
+      <c r="A12" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.2">
+      <c r="A13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.2">
+      <c r="A14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.2">
+      <c r="A15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.2">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.2">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.2">
+      <c r="A18" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="J18" s="10" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="J18" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:10" ht="13.2">
+      <c r="A19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.2">
+      <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.2">
+      <c r="A21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.2">
+      <c r="A22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.2">
+      <c r="A23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.2">
+      <c r="A24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.2">
+      <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.2">
+      <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.2">
+      <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.2">
+      <c r="A28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.2">
+      <c r="A29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.2">
+      <c r="A30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.2">
+      <c r="A31" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.2">
+      <c r="A32" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.2">
+      <c r="A33" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.2">
+      <c r="A34" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.2">
+      <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.2">
+      <c r="A36" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.2">
+      <c r="A37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.2">
+      <c r="A38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.2">
+      <c r="A39" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.2">
+      <c r="A40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.2">
+      <c r="A41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.2">
+      <c r="A42" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.2">
+      <c r="A43" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.2">
+      <c r="A44" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.2">
+      <c r="A45" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.2">
+      <c r="A46" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.2">
+      <c r="A47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.2">
+      <c r="A48" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.2">
+      <c r="A49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.2">
+      <c r="A50" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.2">
+      <c r="A51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.2">
+      <c r="A52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.2">
+      <c r="A53" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.2">
+      <c r="A54" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.2">
+      <c r="A55" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.2">
+      <c r="A56" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.2">
+      <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.2">
+      <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.2">
+      <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.2">
+      <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.2">
+      <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.2">
+      <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.2">
+      <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.2">
+      <c r="A64" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.2">
+      <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.2">
+      <c r="A66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.2">
+      <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7" ht="13.2">
+      <c r="A68" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" ht="13.2">
+      <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" ht="13.2">
+      <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7" ht="13.2">
+      <c r="A71" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" ht="13.2">
+      <c r="A72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="1:7" ht="13.2">
+      <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" ht="13.2">
+      <c r="A74" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="1:7" ht="13.2">
+      <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:7" ht="13.2">
+      <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="8"/>
-      <c r="B77" s="5" t="s">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="1:7" ht="13.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8"/>
-      <c r="B78" s="5" t="s">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="16"/>
+    </row>
+    <row r="78" spans="1:7" ht="13.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="8"/>
-      <c r="B79" s="5" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" ht="13.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8"/>
-      <c r="B80" s="5" t="s">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" ht="13.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8"/>
-      <c r="B81" s="5" t="s">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.2">
+      <c r="A81" s="4"/>
+      <c r="B81" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8"/>
-      <c r="B82" s="5" t="s">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" spans="1:6" ht="13.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8"/>
-      <c r="B83" s="5" t="s">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" spans="1:6" ht="13.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8"/>
-      <c r="B84" s="5" t="s">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="16"/>
+    </row>
+    <row r="84" spans="1:6" ht="13.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8"/>
-      <c r="B85" s="5" t="s">
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="16"/>
+    </row>
+    <row r="85" spans="1:6" ht="13.2">
+      <c r="A85" s="4"/>
+      <c r="B85" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8"/>
-      <c r="B86" s="5" t="s">
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="16"/>
+    </row>
+    <row r="86" spans="1:6" ht="13.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="8"/>
-      <c r="B87" s="5" t="s">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="16"/>
+    </row>
+    <row r="87" spans="1:6" ht="13.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="8"/>
-      <c r="B88" s="5" t="s">
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" spans="1:6" ht="13.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="8"/>
-      <c r="B89" s="5" t="s">
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="16"/>
+    </row>
+    <row r="89" spans="1:6" ht="13.2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="8"/>
-      <c r="B90" s="5" t="s">
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="16"/>
+    </row>
+    <row r="90" spans="1:6" ht="13.2">
+      <c r="A90" s="4"/>
+      <c r="B90" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="16"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1">
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1">
+      <c r="F92" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.0"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:1" ht="13.2">
+      <c r="A2" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:1" ht="13.2">
+      <c r="A3" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:1" ht="13.2">
+      <c r="A4" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:1" ht="13.2">
+      <c r="A5" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:1" ht="13.2">
+      <c r="A6" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:1" ht="13.2">
+      <c r="A7" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:1" ht="13.2">
+      <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:1" ht="13.2">
+      <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:1" ht="13.2">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:1" ht="13.2">
+      <c r="A11" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:1" ht="13.2">
+      <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:1" ht="13.2">
+      <c r="A13" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:1" ht="13.2">
+      <c r="A14" s="9" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="624" windowWidth="9276" windowHeight="2340" activeTab="1"/>
+    <workbookView xWindow="516" yWindow="624" windowWidth="9276" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="Final list for LCHFElimination " sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="258">
   <si>
     <t>Meal plan for Low Carbohydrates High Fat (Keto) -LCHF</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Fish</t>
   </si>
   <si>
-    <t>Processed Foods</t>
-  </si>
-  <si>
     <t>1.       Raw,</t>
   </si>
   <si>
@@ -775,6 +772,24 @@
   </si>
   <si>
     <t>Peanut</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>Fried</t>
+  </si>
+  <si>
+    <t>Chips</t>
+  </si>
+  <si>
+    <t>Crackers</t>
+  </si>
+  <si>
+    <t>ready meals</t>
   </si>
 </sst>
 </file>
@@ -812,12 +827,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -852,6 +861,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -990,44 +1004,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,8 +1258,8 @@
   </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1256,12 +1272,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1273,14 +1289,14 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
@@ -1290,1018 +1306,1028 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>46</v>
+      <c r="E3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>48</v>
+      <c r="E4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>50</v>
+      <c r="E5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>52</v>
+      <c r="E6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>54</v>
+      <c r="E7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>56</v>
+      <c r="E8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>58</v>
+      <c r="E9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.2">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>60</v>
+      <c r="C10" s="3"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.2">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>252</v>
+      <c r="C11" s="3"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.2">
       <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="19"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="13.2">
       <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="19"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="13.2">
       <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="19"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="13.2">
       <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="19"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="13.2">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="19"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="13.2">
       <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="19"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="13.2">
       <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="19"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="13.2">
       <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="19"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="13.2">
       <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="20"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="13.2">
       <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.2">
       <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="13.2">
       <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="13.2">
       <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="20"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="13.2">
       <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="20"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="13.2">
       <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="20"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" ht="13.2">
       <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="20"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" ht="13.2">
       <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="20"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="13.2">
       <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="20"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="13.2">
       <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="20"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="13.2">
       <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="20"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="13.2">
       <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="20"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="13.2">
       <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="20"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="13.2">
       <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="20"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="13.2">
       <c r="A35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="13.2">
       <c r="A36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="13.2">
       <c r="A37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="20"/>
+        <v>78</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="13.2">
       <c r="A38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="20"/>
+        <v>79</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="13.2">
       <c r="A39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="13.2">
       <c r="A40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="13.2">
       <c r="A41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="13.2">
       <c r="A42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" ht="13.2">
       <c r="A43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="20"/>
+        <v>84</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="13.2">
       <c r="A44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" ht="13.2">
       <c r="A45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" ht="13.2">
       <c r="A46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" ht="13.2">
       <c r="A47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" ht="13.2">
       <c r="A48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" ht="13.2">
       <c r="A49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" ht="13.2">
       <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6" ht="13.2">
       <c r="A51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="1:6" ht="13.2">
       <c r="A52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" ht="13.2">
       <c r="A53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" spans="1:6" ht="13.2">
       <c r="A54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" ht="13.2">
       <c r="A55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" ht="13.2">
       <c r="A56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="16"/>
     </row>
     <row r="57" spans="1:6" ht="13.2">
       <c r="A57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:6" ht="13.2">
       <c r="A58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:6" ht="13.2">
       <c r="A59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="16"/>
     </row>
     <row r="60" spans="1:6" ht="13.2">
       <c r="A60" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" ht="13.2">
       <c r="A61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" ht="13.2">
       <c r="A62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="20"/>
+        <v>103</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" ht="13.2">
       <c r="A63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" ht="13.2">
       <c r="A64" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" ht="13.2">
       <c r="A65" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:6" ht="13.2">
       <c r="A66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="20"/>
+        <v>107</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" ht="13.2">
       <c r="A67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" ht="13.2">
       <c r="A68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="20"/>
+        <v>109</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" ht="13.2">
       <c r="A69" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" ht="13.2">
       <c r="A70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" ht="13.2">
       <c r="A71" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="20"/>
+        <v>112</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6" ht="13.2">
       <c r="A72" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="16"/>
+        <v>113</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:6" ht="13.2">
       <c r="A73" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="16"/>
+        <v>114</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:6" ht="13.2">
       <c r="A74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="16"/>
+        <v>115</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:6" ht="13.2">
       <c r="A75" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="16"/>
+        <v>116</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:6" ht="13.2">
       <c r="A76" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="16"/>
+        <v>117</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:6" ht="13.2">
       <c r="A77" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:6" ht="13.2">
       <c r="A78" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="16"/>
+        <v>119</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:6" ht="13.2">
       <c r="A79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="16"/>
+        <v>120</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:6" ht="13.2">
       <c r="A80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="16"/>
+        <v>121</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="1:5" ht="13.2">
       <c r="A81" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="16"/>
+        <v>122</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5" ht="13.2">
       <c r="A82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="16"/>
+        <v>123</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="1:5" ht="13.2">
       <c r="A83" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="16"/>
+        <v>124</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" ht="13.2">
       <c r="A84" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="16"/>
+        <v>125</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" ht="13.2">
       <c r="A85" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="16"/>
+        <v>126</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" ht="13.2">
       <c r="A86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="16"/>
+        <v>127</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="1:5" ht="13.2">
       <c r="A87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="16"/>
+        <v>128</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:5" ht="13.2">
       <c r="A88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="16"/>
+        <v>129</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="1:5" ht="13.2">
       <c r="A89" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="16"/>
+        <v>130</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" ht="13.2">
       <c r="A90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="16"/>
+        <v>131</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="1:5" ht="13.2">
       <c r="A91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:5" ht="13.2">
       <c r="A92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="16"/>
+        <v>132</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" ht="13.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="16"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2319,8 +2345,8 @@
   </sheetPr>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2336,13 +2362,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2352,86 +2378,86 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.2">
       <c r="A3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>46</v>
+      <c r="F3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.2">
       <c r="A4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>48</v>
+      <c r="F4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.2">
       <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>50</v>
+      <c r="E5" s="3"/>
+      <c r="F5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.2">
@@ -2439,1117 +2465,1117 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>52</v>
+      <c r="E6" s="3"/>
+      <c r="F6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.2">
       <c r="A7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.2">
       <c r="A8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.4">
       <c r="A9" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.2">
       <c r="A10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>60</v>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.2">
       <c r="A11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>252</v>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.2">
       <c r="A12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="13.2">
       <c r="A13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="13.2">
       <c r="A14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="13.2">
       <c r="A15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="19"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="13.2">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="19"/>
+        <v>166</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="13.2">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="13.2">
       <c r="A18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="J18" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="J18" s="6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="13.2">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="19"/>
+        <v>170</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:10" ht="13.2">
       <c r="A20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="20"/>
+        <v>171</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="13.2">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="13.2">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="20"/>
+        <v>173</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:10" ht="13.2">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="13.2">
       <c r="A24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="13.2">
       <c r="A25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="20"/>
+        <v>175</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="13.2">
       <c r="A26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="20"/>
+        <v>176</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:10" ht="13.2">
       <c r="A27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="20"/>
+        <v>177</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="13.2">
       <c r="A28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="20"/>
+        <v>178</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="13.2">
       <c r="A29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="20"/>
+        <v>179</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="13.2">
       <c r="A30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="13.2">
       <c r="A31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:10" ht="13.2">
       <c r="A32" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" ht="13.2">
       <c r="A33" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="13.2">
       <c r="A34" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" ht="13.2">
       <c r="A35" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="13.2">
       <c r="A36" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="13.2">
       <c r="A37" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="13.2">
       <c r="A38" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" ht="13.2">
       <c r="A39" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" ht="13.2">
       <c r="A40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="20"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" ht="13.2">
       <c r="A41" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="13.2">
       <c r="A42" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" ht="13.2">
       <c r="A43" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="13.2">
       <c r="A44" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" ht="13.2">
       <c r="A45" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" ht="13.2">
       <c r="A46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="20"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="13.2">
       <c r="A47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="20"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="13.2">
       <c r="A48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="20"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="13.2">
       <c r="A49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="20"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" ht="13.2">
       <c r="A50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="20"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" ht="13.2">
       <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="20"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" ht="13.2">
       <c r="A52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="20"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" ht="13.2">
       <c r="A53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="20"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" ht="13.2">
       <c r="A54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="20"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" ht="13.2">
       <c r="A55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="20"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" ht="13.2">
       <c r="A56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="20"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7" ht="13.2">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="20"/>
+        <v>220</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="13.2">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="20"/>
+        <v>221</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" ht="13.2">
       <c r="A59" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="20"/>
+        <v>222</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" ht="13.2">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="20"/>
+        <v>223</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" ht="13.2">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="20"/>
+        <v>224</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="13.2">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" ht="13.2">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="13.2">
       <c r="A64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="20"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" ht="13.2">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" ht="13.2">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="20"/>
+        <v>228</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" ht="13.2">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="20"/>
+        <v>229</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" ht="13.2">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="20"/>
+        <v>230</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" ht="13.2">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="20"/>
+        <v>231</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7" ht="13.2">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="20"/>
+        <v>232</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7" ht="13.2">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="16"/>
+        <v>233</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="1:7" ht="13.2">
       <c r="A72" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="16"/>
+        <v>234</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:7" ht="13.2">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="16"/>
+        <v>235</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:7" ht="13.2">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="16"/>
+        <v>236</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:7" ht="13.2">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="16"/>
+        <v>237</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:7" ht="13.2">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="12"/>
     </row>
     <row r="77" spans="1:7" ht="13.2">
-      <c r="A77" s="4"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" ht="13.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="1:7" ht="13.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:7" ht="13.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" ht="13.2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="1:6" ht="13.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="1:6" ht="13.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="1:6" ht="13.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:7" ht="13.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="1:7" ht="13.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="1:7" ht="13.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="1:6" ht="13.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="16"/>
-    </row>
-    <row r="83" spans="1:6" ht="13.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="1:6" ht="13.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="16"/>
-    </row>
-    <row r="85" spans="1:6" ht="13.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="1:6" ht="13.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6" ht="13.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="16"/>
-    </row>
-    <row r="86" spans="1:6" ht="13.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="16"/>
-    </row>
-    <row r="87" spans="1:6" ht="13.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="16"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="12"/>
     </row>
     <row r="88" spans="1:6" ht="13.2">
-      <c r="A88" s="4"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="12"/>
     </row>
     <row r="89" spans="1:6" ht="13.2">
-      <c r="A89" s="4"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6" ht="13.2">
-      <c r="A90" s="4"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="12"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1">
-      <c r="F91" s="16"/>
+      <c r="F91" s="12"/>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1">
-      <c r="F92" s="16"/>
+      <c r="F92" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3577,72 +3603,72 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.2">
+      <c r="A2" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.2">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:1" ht="13.2">
+      <c r="A3" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.2">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:1" ht="13.2">
+      <c r="A4" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.2">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:1" ht="13.2">
+      <c r="A5" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.2">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:1" ht="13.2">
+      <c r="A6" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.2">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:1" ht="13.2">
+      <c r="A7" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="13.2">
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="13.2">
+      <c r="A9" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="13.2">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="13.2">
+      <c r="A11" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="13.2">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="13.2">
+      <c r="A13" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.2">
-      <c r="A7" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="13.2">
-      <c r="A8" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="13.2">
-      <c r="A9" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="13.2">
-      <c r="A10" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="13.2">
-      <c r="A11" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="13.2">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="13.2">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:1" ht="13.2">
+      <c r="A14" s="8" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="13.2">
-      <c r="A14" s="9" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
